--- a/biology/Zoologie/Aethopyga/Aethopyga.xlsx
+++ b/biology/Zoologie/Aethopyga/Aethopyga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Aethopyga regroupe une vingtaine espèces de passereaux de la famille des Nectariniidae connus sous le nom de souimangas.
 </t>
@@ -511,11 +523,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>À la suite des travaux phylogéniques de Hosner et al. (2013), qui suggèrent la reconnaissance d'au moins quatre nouvelles espèces au sein de ce genre, le Congrès ornithologique international, dans sa classification de référence version 3.5 (2013) reconnaît les espèces Aethopyga magnifica, Aethopyga guimarasensis, Aethopyga jefferyi et Aethopyga decorosa. Un autre sous-espèce du Souimanga de Bolton, Aethopyga boltoni tibolii, pourrait elle aussi être reconnue comme une espèce à part entière à l'avenir.
-Liste des espèces
-D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite des travaux phylogéniques de Hosner et al. (2013), qui suggèrent la reconnaissance d'au moins quatre nouvelles espèces au sein de ce genre, le Congrès ornithologique international, dans sa classification de référence version 3.5 (2013) reconnaît les espèces Aethopyga magnifica, Aethopyga guimarasensis, Aethopyga jefferyi et Aethopyga decorosa. Un autre sous-espèce du Souimanga de Bolton, Aethopyga boltoni tibolii, pourrait elle aussi être reconnue comme une espèce à part entière à l'avenir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aethopyga</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aethopyga</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Aethopyga primigenia – Souimanga de Hachisuka
 Aethopyga boltoni – Souimanga de Bolton
 Aethopyga linaraborae – Souimanga de Lina
